--- a/BetaCinema.ServerUI/Template/ImportTemplates/CategoryImport.xlsx
+++ b/BetaCinema.ServerUI/Template/ImportTemplates/CategoryImport.xlsx
@@ -8,27 +8,42 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\blazor\BetaCinema\BetaCinema.ServerUI\Template\ImportTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D866D61-91E1-45FC-9948-CD680F6C0A69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{552716A6-262E-4B65-B8FB-4A225B5586CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="DANH SÁCH NGƯỜI DÙNG" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>DANH SÁCH THỂ LOẠI</t>
+  </si>
   <si>
     <t>STT</t>
   </si>
   <si>
-    <t>DANH SÁCH THỂ LOẠI</t>
-  </si>
-  <si>
     <t>Thể loại</t>
+  </si>
+  <si>
+    <t>Thể loại 1</t>
+  </si>
+  <si>
+    <t>Thể loại 2</t>
+  </si>
+  <si>
+    <t>Thể loại 3</t>
+  </si>
+  <si>
+    <t>Thể loại 4</t>
+  </si>
+  <si>
+    <t>Thể loại 5</t>
   </si>
 </sst>
 </file>
@@ -62,7 +77,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -75,8 +90,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -99,12 +119,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -114,14 +149,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -441,48 +479,82 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B78FB58-FC69-45B8-BE8C-0DCDA3C69853}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.21875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="50.77734375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.21875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="33" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="8"/>
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9"/>
     </row>
     <row r="2" spans="1:2" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
     </row>
     <row r="3" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>2</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>3</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>4</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>5</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
+    <mergeCell ref="A2:B2"/>
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
   </mergeCells>
   <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.39370078740157477" bottom="0.39370078740157477" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="8" orientation="landscape"/>
 </worksheet>
 </file>